--- a/src/test/resources/dataSheets/Via.com_DataDrivenTest.xlsx
+++ b/src/test/resources/dataSheets/Via.com_DataDrivenTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vismi\githubFiles\projectGlad\Via.com\src\test\resources\dataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdsvs\OneDrive\Documents\ProjectGladiator\Via1.com\src\test\resources\dataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5A9FEDB-529B-4D52-90FD-3AAB81C309D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47625DF-4B1B-4268-B9DD-B395665F9F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8964" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12810" yWindow="1995" windowWidth="23580" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="85">
   <si>
     <t>email</t>
   </si>
@@ -275,6 +275,12 @@
   </si>
   <si>
     <t>Invalid</t>
+  </si>
+  <si>
+    <t>9834765479</t>
+  </si>
+  <si>
+    <t>9834765422</t>
   </si>
 </sst>
 </file>
@@ -287,7 +293,7 @@
     <numFmt numFmtId="166" formatCode="d\ mmm\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="ddd\,\ mmm\ d\ yyyy"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -314,21 +320,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -466,20 +460,20 @@
   </cellStyleXfs>
   <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -492,22 +486,9 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -520,28 +501,22 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -559,22 +534,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -582,8 +546,38 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -805,97 +799,92 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="328" zoomScaleNormal="328" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="25" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="26"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="27" t="s">
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="26"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="29" t="s">
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="29" t="s">
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="26"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="26"/>
+      <c r="D6" s="19"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -907,125 +896,125 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F6"/>
+    <sheetView zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="26" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="26" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="32">
-        <v>9834765479</v>
-      </c>
-      <c r="E2" s="26" t="s">
+      <c r="D2" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="32">
-        <v>9834765422</v>
-      </c>
-      <c r="E3" s="26" t="s">
+      <c r="D3" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="26"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="19">
         <v>84546548</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="26"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="26">
+      <c r="C5" s="19">
         <v>12345</v>
       </c>
-      <c r="D5" s="32">
+      <c r="D5" s="23">
         <v>9834765787</v>
       </c>
-      <c r="E5" s="30" t="s">
+      <c r="E5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="26"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="26">
+      <c r="B6" s="19">
         <v>123</v>
       </c>
-      <c r="C6" s="34" t="s">
+      <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="32">
+      <c r="D6" s="23">
         <v>9834765865</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="26"/>
+      <c r="F6" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1043,151 +1032,151 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="L1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="37">
+      <c r="C2" s="28">
         <v>44173</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="19">
         <v>0</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="19">
         <v>0</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="19">
         <v>9436452699</v>
       </c>
-      <c r="K2" s="30" t="s">
+      <c r="K2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="26"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="28">
         <v>40855</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="19">
         <v>0</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="19">
         <v>0</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="38">
+      <c r="C4" s="29">
         <v>44175</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="19">
         <v>0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="19">
         <v>0</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="26"/>
+      <c r="M4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1205,247 +1194,247 @@
       <selection sqref="A1:M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="G1" s="35" t="s">
+      <c r="G1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="I1" s="35" t="s">
+      <c r="I1" s="26" t="s">
         <v>47</v>
       </c>
-      <c r="J1" s="35" t="s">
+      <c r="J1" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="35" t="s">
+      <c r="K1" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="35" t="s">
+      <c r="M1" s="26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="26" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="30">
         <v>44420</v>
       </c>
-      <c r="D2" s="26">
+      <c r="D2" s="19">
         <v>1</v>
       </c>
-      <c r="E2" s="26">
+      <c r="E2" s="19">
         <v>0</v>
       </c>
-      <c r="F2" s="26">
+      <c r="F2" s="19">
         <v>0</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="26">
+      <c r="J2" s="19">
         <v>1234567890</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="26"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="26" t="s">
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="26" t="s">
+      <c r="B3" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="30">
         <v>44420</v>
       </c>
-      <c r="D3" s="26">
+      <c r="D3" s="19">
         <v>1</v>
       </c>
-      <c r="E3" s="26">
+      <c r="E3" s="19">
         <v>0</v>
       </c>
-      <c r="F3" s="26">
+      <c r="F3" s="19">
         <v>0</v>
       </c>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26" t="s">
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="26"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="26" t="s">
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="39">
+      <c r="C4" s="30">
         <v>44420</v>
       </c>
-      <c r="D4" s="26">
+      <c r="D4" s="19">
         <v>1</v>
       </c>
-      <c r="E4" s="26">
+      <c r="E4" s="19">
         <v>0</v>
       </c>
-      <c r="F4" s="26">
+      <c r="F4" s="19">
         <v>0</v>
       </c>
-      <c r="G4" s="26"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="26"/>
-      <c r="L4" s="26" t="s">
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="26"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="39">
+      <c r="C5" s="30">
         <v>44420</v>
       </c>
-      <c r="D5" s="26">
+      <c r="D5" s="19">
         <v>1</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="19">
         <v>0</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="19">
         <v>0</v>
       </c>
-      <c r="G5" s="26" t="s">
+      <c r="G5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="26" t="s">
+      <c r="H5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="26" t="s">
+      <c r="I5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="19">
         <v>1234567890</v>
       </c>
-      <c r="K5" s="26" t="s">
+      <c r="K5" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="26" t="s">
+      <c r="L5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="26"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="30">
         <v>44420</v>
       </c>
-      <c r="D6" s="26">
+      <c r="D6" s="19">
         <v>1</v>
       </c>
-      <c r="E6" s="26">
+      <c r="E6" s="19">
         <v>0</v>
       </c>
-      <c r="F6" s="26">
+      <c r="F6" s="19">
         <v>0</v>
       </c>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
-      <c r="K6" s="26"/>
-      <c r="L6" s="26" t="s">
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="26"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C7" s="39">
+      <c r="C7" s="30">
         <v>44420</v>
       </c>
-      <c r="D7" s="26">
+      <c r="D7" s="19">
         <v>1</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="19">
         <v>0</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="19">
         <v>0</v>
       </c>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
-      <c r="K7" s="26"/>
-      <c r="L7" s="26" t="s">
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="26"/>
+      <c r="M7" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1463,159 +1452,159 @@
       <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="40" t="s">
+      <c r="B1" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="40" t="s">
+      <c r="C1" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="40" t="s">
+      <c r="D1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="40" t="s">
+      <c r="E1" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="G1" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="40" t="s">
+      <c r="I1" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="40" t="s">
+      <c r="J1" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="40" t="s">
+      <c r="K1" s="31" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="40" t="s">
+      <c r="L1" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="M1" s="40" t="s">
+      <c r="M1" s="31" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C2" s="41">
+      <c r="C2" s="32">
         <v>44538</v>
       </c>
-      <c r="D2" s="40">
+      <c r="D2" s="31">
         <v>1</v>
       </c>
-      <c r="E2" s="40">
+      <c r="E2" s="31">
         <v>0</v>
       </c>
-      <c r="F2" s="40">
+      <c r="F2" s="31">
         <v>0</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="40" t="s">
+      <c r="H2" s="31" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="40" t="s">
+      <c r="I2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="40">
+      <c r="J2" s="31">
         <v>9436452699</v>
       </c>
-      <c r="K2" s="40" t="s">
+      <c r="K2" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="40" t="s">
+      <c r="L2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="40"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="40" t="s">
+      <c r="M2" s="31"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="41">
+      <c r="C3" s="32">
         <v>44538</v>
       </c>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="40"/>
-      <c r="K3" s="40"/>
-      <c r="L3" s="40" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="40"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="40" t="s">
+      <c r="M3" s="31"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="40">
+      <c r="B4" s="31">
         <v>12234</v>
       </c>
-      <c r="C4" s="41">
+      <c r="C4" s="32">
         <v>44538</v>
       </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
-      <c r="L4" s="40" t="s">
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="40"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="40">
+      <c r="M4" s="31"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="31">
         <v>12223</v>
       </c>
-      <c r="B5" s="40">
+      <c r="B5" s="31">
         <v>122231</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="32">
         <v>44538</v>
       </c>
-      <c r="D5" s="40"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="40"/>
-      <c r="J5" s="40"/>
-      <c r="K5" s="40"/>
-      <c r="L5" s="40" t="s">
+      <c r="D5" s="31"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
+      <c r="I5" s="31"/>
+      <c r="J5" s="31"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="40"/>
+      <c r="M5" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1629,410 +1618,425 @@
   </sheetPr>
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="26" max="26" width="24.5546875" customWidth="1"/>
-    <col min="27" max="28" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="24.5703125" customWidth="1"/>
+    <col min="27" max="28" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="43" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="45"/>
-      <c r="F1" s="43" t="s">
+      <c r="E1" s="41"/>
+      <c r="F1" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="43" t="s">
+      <c r="J1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="43" t="s">
+      <c r="K1" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="43" t="s">
+      <c r="L1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="43" t="s">
+      <c r="M1" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="44" t="s">
+      <c r="N1" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="45"/>
-      <c r="P1" s="45"/>
-      <c r="Q1" s="43" t="s">
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="43" t="s">
+      <c r="R1" s="42" t="s">
         <v>30</v>
       </c>
-      <c r="S1" s="43" t="s">
+      <c r="S1" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="T1" s="43" t="s">
+      <c r="T1" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="U1" s="43" t="s">
+      <c r="U1" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="V1" s="44" t="s">
+      <c r="V1" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="W1" s="45"/>
-      <c r="X1" s="45"/>
-      <c r="Y1" s="42" t="s">
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="Z1" s="42" t="s">
+      <c r="Z1" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="AA1" s="46" t="s">
+      <c r="AA1" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="AB1" s="46" t="s">
+      <c r="AB1" s="40" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="45"/>
-      <c r="B2" s="45"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="47" t="s">
+    <row r="2" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="41"/>
+      <c r="B2" s="41"/>
+      <c r="C2" s="41"/>
+      <c r="D2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="47" t="s">
+      <c r="E2" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
-      <c r="H2" s="45"/>
-      <c r="I2" s="45"/>
-      <c r="J2" s="45"/>
-      <c r="K2" s="45"/>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="48" t="s">
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="48" t="s">
+      <c r="Q2" s="41"/>
+      <c r="R2" s="41"/>
+      <c r="S2" s="41"/>
+      <c r="T2" s="41"/>
+      <c r="U2" s="41"/>
+      <c r="V2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="X2" s="48" t="s">
+      <c r="X2" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-    </row>
-    <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="41"/>
+      <c r="AB2" s="41"/>
+    </row>
+    <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B3" s="50">
+      <c r="B3" s="36">
         <v>44467</v>
       </c>
-      <c r="C3" s="50">
+      <c r="C3" s="36">
         <v>44468</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="31">
         <v>1</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="31">
         <v>2</v>
       </c>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="51" t="s">
+      <c r="G3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="51" t="s">
+      <c r="H3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="51" t="s">
+      <c r="I3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="51" t="s">
+      <c r="J3" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="51" t="s">
+      <c r="K3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="51" t="s">
+      <c r="L3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="M3" s="51" t="s">
+      <c r="M3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="51">
+      <c r="N3" s="37">
         <v>22</v>
       </c>
-      <c r="O3" s="51">
+      <c r="O3" s="37">
         <v>2</v>
       </c>
-      <c r="P3" s="51">
+      <c r="P3" s="37">
         <v>2030</v>
       </c>
-      <c r="Q3" s="51" t="s">
+      <c r="Q3" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="R3" s="51" t="s">
+      <c r="R3" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="51" t="s">
+      <c r="S3" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="T3" s="51" t="s">
+      <c r="T3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="U3" s="51" t="s">
+      <c r="U3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="V3" s="51">
+      <c r="V3" s="37">
         <v>27</v>
       </c>
-      <c r="W3" s="51">
+      <c r="W3" s="37">
         <v>3</v>
       </c>
-      <c r="X3" s="51">
+      <c r="X3" s="37">
         <v>2030</v>
       </c>
-      <c r="Y3" s="51">
+      <c r="Y3" s="37">
         <v>7560861963</v>
       </c>
-      <c r="Z3" s="51" t="s">
+      <c r="Z3" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AA3" s="51" t="s">
+      <c r="AA3" s="37" t="s">
         <v>6</v>
       </c>
-      <c r="AB3" s="52"/>
-    </row>
-    <row r="4" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A4" s="49" t="s">
+      <c r="AB3" s="38"/>
+    </row>
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B4" s="50">
+      <c r="B4" s="36">
         <v>44467</v>
       </c>
-      <c r="C4" s="50">
+      <c r="C4" s="36">
         <v>44468</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="31">
         <v>1</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="31">
         <v>2</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="51" t="s">
+      <c r="G4" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="51" t="s">
+      <c r="H4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="51" t="s">
+      <c r="I4" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="51" t="s">
+      <c r="J4" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="51" t="s">
+      <c r="K4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="51" t="s">
+      <c r="L4" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="51" t="s">
+      <c r="M4" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="51">
+      <c r="N4" s="37">
         <v>22</v>
       </c>
-      <c r="O4" s="51">
+      <c r="O4" s="37">
         <v>2</v>
       </c>
-      <c r="P4" s="51">
+      <c r="P4" s="37">
         <v>2030</v>
       </c>
-      <c r="Q4" s="51" t="s">
+      <c r="Q4" s="37" t="s">
         <v>51</v>
       </c>
-      <c r="R4" s="51" t="s">
+      <c r="R4" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="S4" s="51" t="s">
+      <c r="S4" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="T4" s="51" t="s">
+      <c r="T4" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="U4" s="51" t="s">
+      <c r="U4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="51">
+      <c r="V4" s="37">
         <v>27</v>
       </c>
-      <c r="W4" s="51">
+      <c r="W4" s="37">
         <v>3</v>
       </c>
-      <c r="X4" s="51">
+      <c r="X4" s="37">
         <v>2030</v>
       </c>
-      <c r="Y4" s="51">
+      <c r="Y4" s="37">
         <v>7560861963</v>
       </c>
-      <c r="Z4" s="51" t="s">
+      <c r="Z4" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="AA4" s="53" t="s">
+      <c r="AA4" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AB4" s="52"/>
-    </row>
-    <row r="5" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A5" s="49" t="s">
+      <c r="AB4" s="38"/>
+    </row>
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B5" s="50">
+      <c r="B5" s="36">
         <v>44467</v>
       </c>
-      <c r="C5" s="50">
+      <c r="C5" s="36">
         <v>44468</v>
       </c>
-      <c r="D5" s="40">
+      <c r="D5" s="31">
         <v>1</v>
       </c>
-      <c r="E5" s="40">
+      <c r="E5" s="31">
         <v>2</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="51" t="s">
+      <c r="G5" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-      <c r="M5" s="52"/>
-      <c r="N5" s="52"/>
-      <c r="O5" s="52"/>
-      <c r="P5" s="52"/>
-      <c r="Q5" s="52"/>
-      <c r="R5" s="52"/>
-      <c r="S5" s="52"/>
-      <c r="T5" s="52"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="52"/>
-      <c r="W5" s="52"/>
-      <c r="X5" s="52"/>
-      <c r="Y5" s="52"/>
-      <c r="Z5" s="52"/>
-      <c r="AA5" s="53" t="s">
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="38"/>
+      <c r="O5" s="38"/>
+      <c r="P5" s="38"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="38"/>
+      <c r="S5" s="38"/>
+      <c r="T5" s="38"/>
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="38"/>
+      <c r="Y5" s="38"/>
+      <c r="Z5" s="38"/>
+      <c r="AA5" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AB5" s="52"/>
-    </row>
-    <row r="6" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="AB5" s="38"/>
+    </row>
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="50">
+      <c r="B6" s="36">
         <v>44467</v>
       </c>
-      <c r="C6" s="50">
+      <c r="C6" s="36">
         <v>44467</v>
       </c>
-      <c r="D6" s="40">
+      <c r="D6" s="31">
         <v>1</v>
       </c>
-      <c r="E6" s="40">
+      <c r="E6" s="31">
         <v>2</v>
       </c>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="51" t="s">
+      <c r="G6" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-      <c r="M6" s="52"/>
-      <c r="N6" s="52"/>
-      <c r="O6" s="52"/>
-      <c r="P6" s="52"/>
-      <c r="Q6" s="52"/>
-      <c r="R6" s="52"/>
-      <c r="S6" s="52"/>
-      <c r="T6" s="52"/>
-      <c r="U6" s="52"/>
-      <c r="V6" s="52"/>
-      <c r="W6" s="52"/>
-      <c r="X6" s="52"/>
-      <c r="Y6" s="52"/>
-      <c r="Z6" s="52"/>
-      <c r="AA6" s="53" t="s">
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="38"/>
+      <c r="O6" s="38"/>
+      <c r="P6" s="38"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="38"/>
+      <c r="S6" s="38"/>
+      <c r="T6" s="38"/>
+      <c r="U6" s="38"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="38"/>
+      <c r="X6" s="38"/>
+      <c r="Y6" s="38"/>
+      <c r="Z6" s="38"/>
+      <c r="AA6" s="39" t="s">
         <v>8</v>
       </c>
-      <c r="AB6" s="52"/>
+      <c r="AB6" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:B2"/>
+    <mergeCell ref="C1:C2"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:F2"/>
+    <mergeCell ref="G1:G2"/>
+    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="I1:I2"/>
+    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="K1:K2"/>
+    <mergeCell ref="L1:L2"/>
+    <mergeCell ref="M1:M2"/>
+    <mergeCell ref="N1:P1"/>
+    <mergeCell ref="Q1:Q2"/>
+    <mergeCell ref="AA1:AA2"/>
     <mergeCell ref="AB1:AB2"/>
     <mergeCell ref="R1:R2"/>
     <mergeCell ref="S1:S2"/>
@@ -2041,21 +2045,6 @@
     <mergeCell ref="V1:X1"/>
     <mergeCell ref="Y1:Y2"/>
     <mergeCell ref="Z1:Z2"/>
-    <mergeCell ref="L1:L2"/>
-    <mergeCell ref="M1:M2"/>
-    <mergeCell ref="N1:P1"/>
-    <mergeCell ref="Q1:Q2"/>
-    <mergeCell ref="AA1:AA2"/>
-    <mergeCell ref="G1:G2"/>
-    <mergeCell ref="H1:H2"/>
-    <mergeCell ref="I1:I2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="K1:K2"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2070,62 +2059,62 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="12" max="14" width="17.109375" customWidth="1"/>
-    <col min="15" max="15" width="24.88671875" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="12" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="49" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="50" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22" t="s">
+      <c r="E1" s="51"/>
+      <c r="F1" s="49" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="49" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="49" t="s">
         <v>45</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="22" t="s">
+      <c r="K1" s="49" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="N1" s="20" t="s">
+      <c r="N1" s="45" t="s">
         <v>63</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="48" t="s">
         <v>33</v>
       </c>
       <c r="Q1" s="3"/>
@@ -2141,27 +2130,27 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="46"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
       <c r="D2" s="6" t="s">
         <v>68</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
-      <c r="H2" s="19"/>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
-      <c r="K2" s="19"/>
-      <c r="L2" s="19"/>
-      <c r="M2" s="19"/>
-      <c r="N2" s="19"/>
-      <c r="O2" s="19"/>
-      <c r="P2" s="19"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46"/>
+      <c r="K2" s="46"/>
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="4"/>
@@ -2175,7 +2164,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
         <v>73</v>
       </c>
@@ -2237,7 +2226,7 @@
       <c r="AA3" s="13"/>
       <c r="AB3" s="14"/>
     </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
         <v>73</v>
       </c>
@@ -2299,7 +2288,7 @@
       <c r="AA4" s="13"/>
       <c r="AB4" s="14"/>
     </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
         <v>82</v>
       </c>
@@ -2361,7 +2350,7 @@
       <c r="AA5" s="14"/>
       <c r="AB5" s="14"/>
     </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>73</v>
       </c>

--- a/src/test/resources/dataSheets/Via.com_DataDrivenTest.xlsx
+++ b/src/test/resources/dataSheets/Via.com_DataDrivenTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdsvs\OneDrive\Documents\ProjectGladiator\Via1.com\src\test\resources\dataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vismi\githubFiles\projectGlad\Via.com\src\test\resources\dataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C47625DF-4B1B-4268-B9DD-B395665F9F55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A965902-C2E3-419C-8799-290CFA4E0576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12810" yWindow="1995" windowWidth="23580" windowHeight="15240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="100">
   <si>
     <t>email</t>
   </si>
@@ -281,6 +281,51 @@
   </si>
   <si>
     <t>9834765422</t>
+  </si>
+  <si>
+    <t>84546548</t>
+  </si>
+  <si>
+    <t>9834765787</t>
+  </si>
+  <si>
+    <t>9834765865</t>
+  </si>
+  <si>
+    <t>12345</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>9436452699</t>
+  </si>
+  <si>
+    <t>1234567890</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>7560861963</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>2030</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>3</t>
   </si>
 </sst>
 </file>
@@ -293,7 +338,7 @@
     <numFmt numFmtId="166" formatCode="d\ mmm\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="ddd\,\ mmm\ d\ yyyy"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -320,9 +365,21 @@
       <name val="Calibri"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0563C1"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -348,6 +405,17 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -458,37 +526,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -501,13 +566,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -516,7 +578,13 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -534,11 +602,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -546,39 +614,60 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -799,92 +888,97 @@
   </sheetPr>
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="328" zoomScaleNormal="328" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A2" s="20" t="s">
+    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="19"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="19"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
+      <c r="D3" s="18"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="19"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="53" t="s">
+      <c r="D4" s="18"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="20" t="s">
+      <c r="B5" s="19" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="19"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="D5" s="18"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="19"/>
+      <c r="D6" s="18"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -896,125 +990,125 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView zoomScale="244" zoomScaleNormal="244" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="19" t="s">
+      <c r="F1" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>16</v>
       </c>
       <c r="D2" s="52" t="s">
         <v>83</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="19"/>
-    </row>
-    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="18"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="52" t="s">
         <v>84</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="F3" s="18"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="19">
-        <v>84546548</v>
+      <c r="D4" s="53" t="s">
+        <v>85</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="19"/>
-    </row>
-    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="F4" s="18"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="19">
-        <v>12345</v>
-      </c>
-      <c r="D5" s="23">
-        <v>9834765787</v>
+      <c r="C5" s="53" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="52" t="s">
+        <v>86</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="F5" s="18"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="19">
-        <v>123</v>
+      <c r="B6" s="53" t="s">
+        <v>89</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="23">
-        <v>9834765865</v>
+      <c r="D6" s="52" t="s">
+        <v>87</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="19"/>
+      <c r="F6" s="18"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1032,15 +1126,15 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
@@ -1081,105 +1175,106 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="28">
         <v>44173</v>
       </c>
-      <c r="D2" s="19">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19">
-        <v>0</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="D2" s="54" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="19">
-        <v>9436452699</v>
+      <c r="J2" s="57" t="s">
+        <v>92</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="28">
         <v>40855</v>
       </c>
-      <c r="D3" s="19">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="D3" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="29">
         <v>44175</v>
       </c>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19" t="s">
+      <c r="D4" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="56" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="19"/>
+      <c r="M4" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1190,18 +1285,18 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M7"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="11" max="11" width="19.5703125" customWidth="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1"/>
-    <col min="13" max="13" width="18.42578125" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="26" t="s">
         <v>42</v>
       </c>
@@ -1242,199 +1337,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C2" s="30">
         <v>44420</v>
       </c>
-      <c r="D2" s="19">
-        <v>1</v>
-      </c>
-      <c r="E2" s="19">
-        <v>0</v>
-      </c>
-      <c r="F2" s="19">
-        <v>0</v>
-      </c>
-      <c r="G2" s="19" t="s">
+      <c r="D2" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G2" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="19">
-        <v>1234567890</v>
-      </c>
-      <c r="K2" s="19" t="s">
+      <c r="J2" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L2" s="19" t="s">
+      <c r="L2" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="19"/>
-    </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
+      <c r="M2" s="18"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C3" s="30">
         <v>44420</v>
       </c>
-      <c r="D3" s="19">
-        <v>1</v>
-      </c>
-      <c r="E3" s="19">
-        <v>0</v>
-      </c>
-      <c r="F3" s="19">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
-      <c r="J3" s="19"/>
-      <c r="K3" s="19"/>
-      <c r="L3" s="19" t="s">
+      <c r="D3" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G3" s="18"/>
+      <c r="H3" s="18"/>
+      <c r="I3" s="18"/>
+      <c r="J3" s="18"/>
+      <c r="K3" s="18"/>
+      <c r="L3" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="19"/>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="M3" s="18"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C4" s="30">
         <v>44420</v>
       </c>
-      <c r="D4" s="19">
-        <v>1</v>
-      </c>
-      <c r="E4" s="19">
-        <v>0</v>
-      </c>
-      <c r="F4" s="19">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19" t="s">
+      <c r="D4" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G4" s="18"/>
+      <c r="H4" s="18"/>
+      <c r="I4" s="18"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="19"/>
-    </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="19" t="s">
+      <c r="M4" s="18"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>50</v>
       </c>
       <c r="C5" s="30">
         <v>44420</v>
       </c>
-      <c r="D5" s="19">
-        <v>1</v>
-      </c>
-      <c r="E5" s="19">
-        <v>0</v>
-      </c>
-      <c r="F5" s="19">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19" t="s">
+      <c r="D5" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="19" t="s">
+      <c r="H5" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="19" t="s">
+      <c r="I5" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="19">
-        <v>1234567890</v>
-      </c>
-      <c r="K5" s="19" t="s">
+      <c r="J5" s="57" t="s">
+        <v>93</v>
+      </c>
+      <c r="K5" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="19"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="M5" s="18"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>49</v>
       </c>
       <c r="C6" s="30">
         <v>44420</v>
       </c>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="19">
-        <v>0</v>
-      </c>
-      <c r="F6" s="19">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19" t="s">
+      <c r="D6" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="19"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="19" t="s">
+      <c r="M6" s="18"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>56</v>
       </c>
       <c r="C7" s="30">
         <v>44420</v>
       </c>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="19">
-        <v>0</v>
-      </c>
-      <c r="F7" s="19">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19" t="s">
+      <c r="D7" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="18"/>
+      <c r="L7" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="19"/>
+      <c r="M7" s="18"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1448,16 +1543,16 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M5"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
@@ -1498,7 +1593,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -1526,8 +1621,8 @@
       <c r="I2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="31">
-        <v>9436452699</v>
+      <c r="J2" s="58" t="s">
+        <v>92</v>
       </c>
       <c r="K2" s="31" t="s">
         <v>39</v>
@@ -1537,7 +1632,7 @@
       </c>
       <c r="M2" s="31"/>
     </row>
-    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
         <v>34</v>
       </c>
@@ -1560,7 +1655,7 @@
       </c>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
         <v>34</v>
       </c>
@@ -1583,7 +1678,7 @@
       </c>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>12223</v>
       </c>
@@ -1618,27 +1713,27 @@
   </sheetPr>
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.7109375" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="2" max="2" width="18.6640625" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="8" max="8" width="8.140625" customWidth="1"/>
-    <col min="10" max="10" width="25.140625" customWidth="1"/>
-    <col min="12" max="12" width="22.85546875" customWidth="1"/>
-    <col min="13" max="13" width="16.28515625" customWidth="1"/>
-    <col min="19" max="19" width="18.140625" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" customWidth="1"/>
+    <col min="10" max="10" width="25.109375" customWidth="1"/>
+    <col min="12" max="12" width="22.88671875" customWidth="1"/>
+    <col min="13" max="13" width="16.33203125" customWidth="1"/>
+    <col min="19" max="19" width="18.109375" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="26" max="26" width="24.5703125" customWidth="1"/>
-    <col min="27" max="28" width="20.7109375" customWidth="1"/>
+    <col min="26" max="26" width="24.5546875" customWidth="1"/>
+    <col min="27" max="28" width="20.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="44" t="s">
         <v>57</v>
       </c>
@@ -1714,7 +1809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
       <c r="A2" s="41"/>
       <c r="B2" s="41"/>
       <c r="C2" s="41"/>
@@ -1760,7 +1855,7 @@
       <c r="AA2" s="41"/>
       <c r="AB2" s="41"/>
     </row>
-    <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
         <v>73</v>
       </c>
@@ -1770,11 +1865,11 @@
       <c r="C3" s="36">
         <v>44468</v>
       </c>
-      <c r="D3" s="31">
-        <v>1</v>
-      </c>
-      <c r="E3" s="31">
-        <v>2</v>
+      <c r="D3" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="58" t="s">
+        <v>94</v>
       </c>
       <c r="F3" s="37" t="s">
         <v>74</v>
@@ -1800,14 +1895,14 @@
       <c r="M3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="37">
-        <v>22</v>
-      </c>
-      <c r="O3" s="37">
-        <v>2</v>
-      </c>
-      <c r="P3" s="37">
-        <v>2030</v>
+      <c r="N3" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="O3" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="P3" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="Q3" s="37" t="s">
         <v>51</v>
@@ -1824,17 +1919,17 @@
       <c r="U3" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="V3" s="37">
-        <v>27</v>
-      </c>
-      <c r="W3" s="37">
-        <v>3</v>
-      </c>
-      <c r="X3" s="37">
-        <v>2030</v>
-      </c>
-      <c r="Y3" s="37">
-        <v>7560861963</v>
+      <c r="V3" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="W3" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="X3" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y3" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="Z3" s="37" t="s">
         <v>81</v>
@@ -1844,7 +1939,7 @@
       </c>
       <c r="AB3" s="38"/>
     </row>
-    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A4" s="35" t="s">
         <v>73</v>
       </c>
@@ -1854,11 +1949,11 @@
       <c r="C4" s="36">
         <v>44468</v>
       </c>
-      <c r="D4" s="31">
-        <v>1</v>
-      </c>
-      <c r="E4" s="31">
-        <v>2</v>
+      <c r="D4" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="58" t="s">
+        <v>94</v>
       </c>
       <c r="F4" s="37" t="s">
         <v>74</v>
@@ -1884,14 +1979,14 @@
       <c r="M4" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="37">
-        <v>22</v>
-      </c>
-      <c r="O4" s="37">
-        <v>2</v>
-      </c>
-      <c r="P4" s="37">
-        <v>2030</v>
+      <c r="N4" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="O4" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="62" t="s">
+        <v>97</v>
       </c>
       <c r="Q4" s="37" t="s">
         <v>51</v>
@@ -1908,17 +2003,17 @@
       <c r="U4" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="V4" s="37">
-        <v>27</v>
-      </c>
-      <c r="W4" s="37">
-        <v>3</v>
-      </c>
-      <c r="X4" s="37">
-        <v>2030</v>
-      </c>
-      <c r="Y4" s="37">
-        <v>7560861963</v>
+      <c r="V4" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="W4" s="62" t="s">
+        <v>99</v>
+      </c>
+      <c r="X4" s="62" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y4" s="62" t="s">
+        <v>95</v>
       </c>
       <c r="Z4" s="37" t="s">
         <v>81</v>
@@ -1928,7 +2023,7 @@
       </c>
       <c r="AB4" s="38"/>
     </row>
-    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
         <v>82</v>
       </c>
@@ -1938,11 +2033,11 @@
       <c r="C5" s="36">
         <v>44468</v>
       </c>
-      <c r="D5" s="31">
-        <v>1</v>
-      </c>
-      <c r="E5" s="31">
-        <v>2</v>
+      <c r="D5" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="58" t="s">
+        <v>94</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>74</v>
@@ -1974,7 +2069,7 @@
       </c>
       <c r="AB5" s="38"/>
     </row>
-    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A6" s="35" t="s">
         <v>73</v>
       </c>
@@ -1984,11 +2079,11 @@
       <c r="C6" s="36">
         <v>44467</v>
       </c>
-      <c r="D6" s="31">
-        <v>1</v>
-      </c>
-      <c r="E6" s="31">
-        <v>2</v>
+      <c r="D6" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="58" t="s">
+        <v>94</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>74</v>
@@ -2057,20 +2152,22 @@
   </sheetPr>
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" customWidth="1"/>
-    <col min="12" max="14" width="17.140625" customWidth="1"/>
-    <col min="15" max="15" width="24.85546875" customWidth="1"/>
-    <col min="16" max="16" width="27.28515625" customWidth="1"/>
+    <col min="1" max="1" width="18.44140625" customWidth="1"/>
+    <col min="2" max="2" width="18.88671875" customWidth="1"/>
+    <col min="3" max="3" width="19.6640625" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" customWidth="1"/>
+    <col min="12" max="14" width="17.109375" customWidth="1"/>
+    <col min="15" max="15" width="24.88671875" customWidth="1"/>
+    <col min="16" max="16" width="27.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
         <v>57</v>
       </c>
@@ -2130,7 +2227,7 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A2" s="46"/>
       <c r="B2" s="46"/>
       <c r="C2" s="46"/>
@@ -2164,7 +2261,7 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>73</v>
       </c>
@@ -2174,28 +2271,28 @@
       <c r="C3" s="9">
         <v>44468</v>
       </c>
-      <c r="D3" s="10">
-        <v>1</v>
-      </c>
-      <c r="E3" s="10">
-        <v>2</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="D3" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="60" t="s">
         <v>77</v>
       </c>
       <c r="L3" s="2" t="s">
@@ -2207,26 +2304,26 @@
       <c r="N3" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="2">
-        <v>7560861963</v>
-      </c>
-      <c r="P3" s="12" t="s">
+      <c r="O3" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="13"/>
-      <c r="R3" s="13"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-      <c r="V3" s="14"/>
-      <c r="W3" s="14"/>
-      <c r="X3" s="13"/>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="14"/>
-    </row>
-    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="12"/>
+      <c r="R3" s="12"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+      <c r="V3" s="13"/>
+      <c r="W3" s="13"/>
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
+      <c r="AA3" s="12"/>
+      <c r="AB3" s="13"/>
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>73</v>
       </c>
@@ -2236,28 +2333,28 @@
       <c r="C4" s="9">
         <v>44468</v>
       </c>
-      <c r="D4" s="10">
-        <v>1</v>
-      </c>
-      <c r="E4" s="10">
-        <v>2</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="11" t="s">
+      <c r="G4" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H4" s="11" t="s">
+      <c r="H4" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="11" t="s">
+      <c r="I4" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="11" t="s">
+      <c r="J4" s="10" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="11" t="s">
+      <c r="K4" s="60" t="s">
         <v>77</v>
       </c>
       <c r="L4" s="2" t="s">
@@ -2269,26 +2366,26 @@
       <c r="N4" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="2">
-        <v>7560861963</v>
-      </c>
-      <c r="P4" s="12" t="s">
+      <c r="O4" s="60" t="s">
+        <v>95</v>
+      </c>
+      <c r="P4" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="Q4" s="13"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="14"/>
-      <c r="T4" s="14"/>
-      <c r="U4" s="14"/>
-      <c r="V4" s="14"/>
-      <c r="W4" s="14"/>
-      <c r="X4" s="13"/>
-      <c r="Y4" s="13"/>
-      <c r="Z4" s="13"/>
-      <c r="AA4" s="13"/>
-      <c r="AB4" s="14"/>
-    </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="12"/>
+      <c r="R4" s="12"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="13"/>
+      <c r="U4" s="13"/>
+      <c r="V4" s="13"/>
+      <c r="W4" s="13"/>
+      <c r="X4" s="12"/>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="13"/>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>82</v>
       </c>
@@ -2298,59 +2395,59 @@
       <c r="C5" s="9">
         <v>44468</v>
       </c>
-      <c r="D5" s="10">
-        <v>1</v>
-      </c>
-      <c r="E5" s="10">
-        <v>2</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E5" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="11" t="s">
+      <c r="G5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="L5" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="M5" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="16" t="s">
+      <c r="N5" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="16">
-        <v>7560861963</v>
-      </c>
-      <c r="P5" s="17" t="s">
+      <c r="O5" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="P5" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="Q5" s="14"/>
-      <c r="R5" s="14"/>
-      <c r="S5" s="14"/>
-      <c r="T5" s="14"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="14"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-      <c r="AA5" s="14"/>
-      <c r="AB5" s="14"/>
-    </row>
-    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="13"/>
+      <c r="R5" s="13"/>
+      <c r="S5" s="13"/>
+      <c r="T5" s="13"/>
+      <c r="U5" s="13"/>
+      <c r="V5" s="13"/>
+      <c r="W5" s="13"/>
+      <c r="X5" s="13"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
+      <c r="AA5" s="13"/>
+      <c r="AB5" s="13"/>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>73</v>
       </c>
@@ -2360,57 +2457,57 @@
       <c r="C6" s="9">
         <v>44467</v>
       </c>
-      <c r="D6" s="10">
-        <v>1</v>
-      </c>
-      <c r="E6" s="10">
-        <v>2</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="D6" s="59" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="59" t="s">
+        <v>94</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="11" t="s">
+      <c r="G6" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="15" t="s">
+      <c r="J6" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="15" t="s">
+      <c r="K6" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="L6" s="16" t="s">
+      <c r="L6" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="M6" s="16" t="s">
+      <c r="M6" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="16" t="s">
+      <c r="N6" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="16">
-        <v>7560861963</v>
-      </c>
-      <c r="P6" s="17" t="s">
+      <c r="O6" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="P6" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="Q6" s="14"/>
-      <c r="R6" s="14"/>
-      <c r="S6" s="14"/>
-      <c r="T6" s="14"/>
-      <c r="U6" s="14"/>
-      <c r="V6" s="14"/>
-      <c r="W6" s="14"/>
-      <c r="X6" s="14"/>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
-      <c r="AA6" s="14"/>
-      <c r="AB6" s="14"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="13"/>
+      <c r="S6" s="13"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="13"/>
+      <c r="V6" s="13"/>
+      <c r="W6" s="13"/>
+      <c r="X6" s="13"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
+      <c r="AA6" s="13"/>
+      <c r="AB6" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="15">

--- a/src/test/resources/dataSheets/Via.com_DataDrivenTest.xlsx
+++ b/src/test/resources/dataSheets/Via.com_DataDrivenTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vismi\githubFiles\projectGlad\Via.com\src\test\resources\dataSheets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gdsvs\OneDrive\Documents\ProjectGladiator\Via.com\src\test\resources\dataSheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A965902-C2E3-419C-8799-290CFA4E0576}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50D2D717-B76F-420C-878C-85841B322451}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="37590" windowHeight="21840" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,12 @@
     <sheet name="International Hotel booking" sheetId="6" r:id="rId6"/>
     <sheet name="Domestic Hotel booking" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="90">
   <si>
     <t>email</t>
   </si>
@@ -160,9 +160,6 @@
     <t>Departure Date</t>
   </si>
   <si>
-    <t>Adult</t>
-  </si>
-  <si>
     <t>Title</t>
   </si>
   <si>
@@ -283,49 +280,22 @@
     <t>9834765422</t>
   </si>
   <si>
-    <t>84546548</t>
-  </si>
-  <si>
-    <t>9834765787</t>
-  </si>
-  <si>
-    <t>9834765865</t>
-  </si>
-  <si>
-    <t>12345</t>
-  </si>
-  <si>
-    <t>123</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>9436452699</t>
-  </si>
-  <si>
-    <t>1234567890</t>
-  </si>
-  <si>
-    <t>2</t>
+    <t>DEL</t>
   </si>
   <si>
     <t>7560861963</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>2030</t>
-  </si>
-  <si>
-    <t>27</t>
-  </si>
-  <si>
-    <t>3</t>
+    <t>Vizag</t>
+  </si>
+  <si>
+    <t>Pune</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>457545abc</t>
   </si>
 </sst>
 </file>
@@ -338,7 +308,7 @@
     <numFmt numFmtId="166" formatCode="d\ mmm\,\ yyyy"/>
     <numFmt numFmtId="167" formatCode="ddd\,\ mmm\ d\ yyyy"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -365,21 +335,9 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <u/>
@@ -405,17 +363,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -526,34 +473,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -566,10 +516,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -578,13 +531,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -602,11 +549,11 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -614,60 +561,42 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -889,96 +818,91 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
-    <col min="3" max="3" width="18.33203125" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="18"/>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
+      <c r="D2" s="19"/>
+    </row>
+    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="18"/>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="21" t="s">
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="18"/>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="21" t="s">
+      <c r="D4" s="19"/>
+    </row>
+    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="20" t="s">
         <v>5</v>
       </c>
       <c r="C5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="18"/>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
+      <c r="D5" s="19"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="18" t="s">
         <v>11</v>
       </c>
       <c r="C6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="18"/>
+      <c r="D6" s="19"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="A5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="A6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -990,125 +914,125 @@
   </sheetPr>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="244" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.33203125" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="1" max="1" width="27.28515625" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="E2" s="18" t="s">
+      <c r="D2" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="E2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F2" s="19"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="E3" s="18" t="s">
+      <c r="D3" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="F3" s="19"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="D4" s="53" t="s">
-        <v>85</v>
+      <c r="D4" s="19">
+        <v>84546548</v>
       </c>
       <c r="E4" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="F4" s="19"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="19" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="53" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="52" t="s">
-        <v>86</v>
+      <c r="C5" s="19">
+        <v>12345</v>
+      </c>
+      <c r="D5" s="23">
+        <v>9834765787</v>
       </c>
       <c r="E5" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
+      <c r="F5" s="19"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="53" t="s">
-        <v>89</v>
+      <c r="B6" s="19">
+        <v>123</v>
       </c>
       <c r="C6" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="52" t="s">
-        <v>87</v>
+      <c r="D6" s="23">
+        <v>9834765865</v>
       </c>
       <c r="E6" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="18"/>
+      <c r="F6" s="19"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1126,15 +1050,15 @@
   <dimension ref="A1:M4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="12" max="12" width="19.5546875" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>23</v>
       </c>
@@ -1175,106 +1099,105 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C2" s="28">
         <v>44173</v>
       </c>
-      <c r="D2" s="54" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="D2" s="19">
+        <v>1</v>
+      </c>
+      <c r="E2" s="19">
+        <v>0</v>
+      </c>
+      <c r="F2" s="19">
+        <v>0</v>
+      </c>
+      <c r="G2" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="57" t="s">
-        <v>92</v>
+      <c r="J2" s="19">
+        <v>9436452699</v>
       </c>
       <c r="K2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="19" t="s">
         <v>35</v>
       </c>
       <c r="C3" s="28">
         <v>40855</v>
       </c>
-      <c r="D3" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
+      <c r="D3" s="19">
+        <v>1</v>
+      </c>
+      <c r="E3" s="19">
+        <v>0</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="19" t="s">
         <v>41</v>
       </c>
       <c r="C4" s="29">
         <v>44175</v>
       </c>
-      <c r="D4" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="56" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18" t="s">
+      <c r="D4" s="19">
+        <v>1</v>
+      </c>
+      <c r="E4" s="19">
+        <v>0</v>
+      </c>
+      <c r="F4" s="19">
+        <v>0</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="18"/>
+      <c r="M4" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1285,18 +1208,18 @@
   </sheetPr>
   <dimension ref="A1:M7"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="11" max="11" width="19.5546875" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="19.5703125" customWidth="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
         <v>42</v>
       </c>
@@ -1307,28 +1230,28 @@
         <v>43</v>
       </c>
       <c r="D1" s="26" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" s="26" t="s">
+        <v>43</v>
+      </c>
+      <c r="G1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="26" t="s">
+      <c r="H1" s="26" t="s">
         <v>45</v>
       </c>
-      <c r="H1" s="26" t="s">
+      <c r="I1" s="26" t="s">
         <v>46</v>
-      </c>
-      <c r="I1" s="26" t="s">
-        <v>47</v>
       </c>
       <c r="J1" s="26" t="s">
         <v>32</v>
       </c>
       <c r="K1" s="26" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L1" s="26" t="s">
         <v>2</v>
@@ -1337,199 +1260,199 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B2" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="C2" s="30">
         <v>44420</v>
       </c>
-      <c r="D2" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="G2" s="18" t="s">
+      <c r="D2" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F2" s="30">
+        <v>44420</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="J2" s="19">
+        <v>1234567890</v>
+      </c>
+      <c r="K2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J2" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="K2" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L2" s="18" t="s">
+      <c r="L2" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="18"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>49</v>
+      <c r="M2" s="19"/>
+    </row>
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B3" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="30">
         <v>44420</v>
       </c>
-      <c r="D3" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F3" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18" t="s">
+      <c r="D3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="30">
+        <v>44420</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="18"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="M3" s="19"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="C4" s="30">
         <v>44420</v>
       </c>
-      <c r="D4" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F4" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="G4" s="18"/>
-      <c r="H4" s="18"/>
-      <c r="I4" s="18"/>
-      <c r="J4" s="18"/>
-      <c r="K4" s="18"/>
-      <c r="L4" s="18" t="s">
+      <c r="D4" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="30">
+        <v>44420</v>
+      </c>
+      <c r="G4" s="19"/>
+      <c r="H4" s="19"/>
+      <c r="I4" s="19"/>
+      <c r="J4" s="19"/>
+      <c r="K4" s="19"/>
+      <c r="L4" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="18"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="M4" s="19"/>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>50</v>
       </c>
       <c r="C5" s="30">
         <v>44420</v>
       </c>
-      <c r="D5" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F5" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="G5" s="18" t="s">
+      <c r="D5" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="30">
+        <v>44420</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>50</v>
+      </c>
+      <c r="H5" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="I5" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="J5" s="19">
+        <v>1234567890</v>
+      </c>
+      <c r="K5" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="J5" s="57" t="s">
-        <v>93</v>
-      </c>
-      <c r="K5" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="18" t="s">
+      <c r="L5" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="M5" s="18"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>49</v>
+      <c r="M5" s="19"/>
+    </row>
+    <row r="6" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6" s="19" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="30">
         <v>44420</v>
       </c>
-      <c r="D6" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="18"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="18"/>
-      <c r="L6" s="18" t="s">
+      <c r="D6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" s="30">
+        <v>44420</v>
+      </c>
+      <c r="G6" s="19"/>
+      <c r="H6" s="19"/>
+      <c r="I6" s="19"/>
+      <c r="J6" s="19"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="18"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
+      <c r="M6" s="19"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="19" t="s">
         <v>55</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>56</v>
       </c>
       <c r="C7" s="30">
         <v>44420</v>
       </c>
-      <c r="D7" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="E7" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="F7" s="57" t="s">
-        <v>91</v>
-      </c>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="18" t="s">
+      <c r="D7" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="30">
+        <v>44420</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="19"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="18"/>
+      <c r="M7" s="19"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1543,16 +1466,16 @@
   </sheetPr>
   <dimension ref="A1:M5"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="12" max="12" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="31" t="s">
         <v>23</v>
       </c>
@@ -1593,7 +1516,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>34</v>
       </c>
@@ -1621,8 +1544,8 @@
       <c r="I2" s="31" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="58" t="s">
-        <v>92</v>
+      <c r="J2" s="31">
+        <v>9436452699</v>
       </c>
       <c r="K2" s="31" t="s">
         <v>39</v>
@@ -1632,7 +1555,7 @@
       </c>
       <c r="M2" s="31"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>34</v>
       </c>
@@ -1655,7 +1578,7 @@
       </c>
       <c r="M3" s="31"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>34</v>
       </c>
@@ -1678,7 +1601,7 @@
       </c>
       <c r="M4" s="31"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="31">
         <v>12223</v>
       </c>
@@ -1713,151 +1636,151 @@
   </sheetPr>
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="232" zoomScaleNormal="232" workbookViewId="0">
+      <selection activeCell="Z6" sqref="Z6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="3" max="3" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
     <col min="4" max="4" width="20" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="10" max="10" width="25.109375" customWidth="1"/>
-    <col min="12" max="12" width="22.88671875" customWidth="1"/>
-    <col min="13" max="13" width="16.33203125" customWidth="1"/>
-    <col min="19" max="19" width="18.109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="10" max="10" width="25.140625" customWidth="1"/>
+    <col min="12" max="12" width="22.85546875" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" customWidth="1"/>
+    <col min="19" max="19" width="18.140625" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="26" max="26" width="24.5546875" customWidth="1"/>
-    <col min="27" max="28" width="20.6640625" customWidth="1"/>
+    <col min="26" max="26" width="24.5703125" customWidth="1"/>
+    <col min="27" max="28" width="20.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="44" t="s">
+    <row r="1" spans="1:28" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="47" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="C1" s="45" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="D1" s="46" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="41"/>
-      <c r="F1" s="42" t="s">
+      <c r="G1" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="H1" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="45" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="42" t="s">
+      <c r="K1" s="45" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="M1" s="45" t="s">
+        <v>65</v>
+      </c>
+      <c r="N1" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="45" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="42" t="s">
+      <c r="S1" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="T1" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="42" t="s">
+      <c r="U1" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="42" t="s">
+      <c r="V1" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="43" t="s">
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z1" s="47" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA1" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="44"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="R1" s="42" t="s">
-        <v>30</v>
-      </c>
-      <c r="S1" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="T1" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="U1" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="V1" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="44" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z1" s="44" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA1" s="40" t="s">
-        <v>2</v>
-      </c>
-      <c r="AB1" s="40" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:28" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A2" s="41"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="41"/>
-      <c r="D2" s="33" t="s">
+      <c r="E2" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="44"/>
+      <c r="N2" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="34" t="s">
+      <c r="O2" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="O2" s="34" t="s">
+      <c r="P2" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="P2" s="34" t="s">
+      <c r="Q2" s="44"/>
+      <c r="R2" s="44"/>
+      <c r="S2" s="44"/>
+      <c r="T2" s="44"/>
+      <c r="U2" s="44"/>
+      <c r="V2" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="W2" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="X2" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="Y2" s="44"/>
+      <c r="Z2" s="44"/>
+      <c r="AA2" s="44"/>
+      <c r="AB2" s="44"/>
+    </row>
+    <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="35" t="s">
         <v>72</v>
-      </c>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="41"/>
-      <c r="U2" s="41"/>
-      <c r="V2" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="W2" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="X2" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="41"/>
-      <c r="Z2" s="41"/>
-      <c r="AA2" s="41"/>
-      <c r="AB2" s="41"/>
-    </row>
-    <row r="3" spans="1:28" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
-        <v>73</v>
       </c>
       <c r="B3" s="36">
         <v>44467</v>
@@ -1865,83 +1788,83 @@
       <c r="C3" s="36">
         <v>44468</v>
       </c>
-      <c r="D3" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="58" t="s">
-        <v>94</v>
+      <c r="D3" s="31">
+        <v>1</v>
+      </c>
+      <c r="E3" s="31">
+        <v>2</v>
       </c>
       <c r="F3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="37" t="s">
+      <c r="J3" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="37" t="s">
+      <c r="K3" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="37" t="s">
+      <c r="L3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="M3" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="L3" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="M3" s="37" t="s">
+      <c r="N3" s="37">
+        <v>22</v>
+      </c>
+      <c r="O3" s="37">
+        <v>2</v>
+      </c>
+      <c r="P3" s="37">
+        <v>2030</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="R3" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N3" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="O3" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="P3" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q3" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="R3" s="37" t="s">
+      <c r="S3" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="S3" s="37" t="s">
+      <c r="T3" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U3" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="V3" s="37">
+        <v>27</v>
+      </c>
+      <c r="W3" s="37">
+        <v>3</v>
+      </c>
+      <c r="X3" s="37">
+        <v>2030</v>
+      </c>
+      <c r="Y3" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z3" s="37" t="s">
         <v>80</v>
-      </c>
-      <c r="T3" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="U3" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="V3" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="W3" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="X3" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y3" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z3" s="37" t="s">
-        <v>81</v>
       </c>
       <c r="AA3" s="37" t="s">
         <v>6</v>
       </c>
       <c r="AB3" s="38"/>
     </row>
-    <row r="4" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A4" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" s="36">
         <v>44467</v>
@@ -1949,83 +1872,83 @@
       <c r="C4" s="36">
         <v>44468</v>
       </c>
-      <c r="D4" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="58" t="s">
-        <v>94</v>
+      <c r="D4" s="31">
+        <v>1</v>
+      </c>
+      <c r="E4" s="31">
+        <v>2</v>
       </c>
       <c r="F4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="37" t="s">
+      <c r="J4" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="37" t="s">
+      <c r="K4" s="37" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="37" t="s">
+      <c r="L4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="M4" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="L4" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="M4" s="37" t="s">
+      <c r="N4" s="37">
+        <v>22</v>
+      </c>
+      <c r="O4" s="37">
+        <v>2</v>
+      </c>
+      <c r="P4" s="37">
+        <v>2030</v>
+      </c>
+      <c r="Q4" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="R4" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="N4" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="O4" s="62" t="s">
-        <v>94</v>
-      </c>
-      <c r="P4" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="Q4" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="R4" s="37" t="s">
+      <c r="S4" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="S4" s="37" t="s">
+      <c r="T4" s="37" t="s">
+        <v>73</v>
+      </c>
+      <c r="U4" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="V4" s="37">
+        <v>27</v>
+      </c>
+      <c r="W4" s="37">
+        <v>3</v>
+      </c>
+      <c r="X4" s="37">
+        <v>2030</v>
+      </c>
+      <c r="Y4" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z4" s="37" t="s">
         <v>80</v>
-      </c>
-      <c r="T4" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="U4" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="V4" s="62" t="s">
-        <v>98</v>
-      </c>
-      <c r="W4" s="62" t="s">
-        <v>99</v>
-      </c>
-      <c r="X4" s="62" t="s">
-        <v>97</v>
-      </c>
-      <c r="Y4" s="62" t="s">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="37" t="s">
-        <v>81</v>
       </c>
       <c r="AA4" s="39" t="s">
         <v>8</v>
       </c>
       <c r="AB4" s="38"/>
     </row>
-    <row r="5" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A5" s="35" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B5" s="36">
         <v>44467</v>
@@ -2033,17 +1956,17 @@
       <c r="C5" s="36">
         <v>44468</v>
       </c>
-      <c r="D5" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="58" t="s">
-        <v>94</v>
+      <c r="D5" s="31">
+        <v>1</v>
+      </c>
+      <c r="E5" s="31">
+        <v>2</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G5" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H5" s="38"/>
       <c r="I5" s="38"/>
@@ -2069,9 +1992,9 @@
       </c>
       <c r="AB5" s="38"/>
     </row>
-    <row r="6" spans="1:28" ht="13.8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:28" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A6" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B6" s="36">
         <v>44467</v>
@@ -2079,17 +2002,17 @@
       <c r="C6" s="36">
         <v>44467</v>
       </c>
-      <c r="D6" s="58" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="58" t="s">
-        <v>94</v>
+      <c r="D6" s="31">
+        <v>1</v>
+      </c>
+      <c r="E6" s="31">
+        <v>2</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G6" s="37" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H6" s="38"/>
       <c r="I6" s="38"/>
@@ -2152,66 +2075,66 @@
   </sheetPr>
   <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" zoomScale="238" zoomScaleNormal="238" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.44140625" customWidth="1"/>
-    <col min="2" max="2" width="18.88671875" customWidth="1"/>
-    <col min="3" max="3" width="19.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" customWidth="1"/>
-    <col min="12" max="14" width="17.109375" customWidth="1"/>
-    <col min="15" max="15" width="24.88671875" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" customWidth="1"/>
+    <col min="1" max="1" width="18.42578125" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="12" max="14" width="17.140625" customWidth="1"/>
+    <col min="15" max="15" width="24.85546875" customWidth="1"/>
+    <col min="16" max="16" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+    <row r="1" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="52" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="52" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="49" t="s">
+      <c r="C1" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="49" t="s">
+      <c r="D1" s="53" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="51"/>
-      <c r="F1" s="49" t="s">
+      <c r="G1" s="52" t="s">
         <v>61</v>
       </c>
-      <c r="G1" s="49" t="s">
+      <c r="H1" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" s="52" t="s">
+        <v>30</v>
+      </c>
+      <c r="J1" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="H1" s="49" t="s">
-        <v>45</v>
-      </c>
-      <c r="I1" s="49" t="s">
+      <c r="K1" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="L1" s="48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M1" s="48" t="s">
         <v>30</v>
       </c>
-      <c r="J1" s="49" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="49" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="45" t="s">
-        <v>45</v>
-      </c>
-      <c r="M1" s="45" t="s">
-        <v>30</v>
-      </c>
-      <c r="N1" s="45" t="s">
-        <v>63</v>
-      </c>
-      <c r="O1" s="47" t="s">
+      <c r="N1" s="48" t="s">
+        <v>62</v>
+      </c>
+      <c r="O1" s="50" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="48" t="s">
+      <c r="P1" s="51" t="s">
         <v>33</v>
       </c>
       <c r="Q1" s="3"/>
@@ -2227,27 +2150,27 @@
       <c r="AA1" s="4"/>
       <c r="AB1" s="4"/>
     </row>
-    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
-      <c r="A2" s="46"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
+    <row r="2" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="49"/>
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
       <c r="D2" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46"/>
-      <c r="K2" s="46"/>
-      <c r="L2" s="46"/>
-      <c r="M2" s="46"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="49"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
       <c r="S2" s="4"/>
@@ -2261,9 +2184,9 @@
       <c r="AA2" s="4"/>
       <c r="AB2" s="4"/>
     </row>
-    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="B3" s="9">
         <v>44467</v>
@@ -2271,61 +2194,61 @@
       <c r="C3" s="9">
         <v>44468</v>
       </c>
-      <c r="D3" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="E3" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="D3" s="10">
+        <v>1</v>
+      </c>
+      <c r="E3" s="10">
+        <v>2</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="K3" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K3" s="60" t="s">
-        <v>77</v>
-      </c>
       <c r="L3" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M3" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N3" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="O3" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P3" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="O3" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="P3" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="13"/>
-      <c r="W3" s="13"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12"/>
-      <c r="AB3" s="13"/>
-    </row>
-    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="14"/>
+      <c r="U3" s="14"/>
+      <c r="V3" s="14"/>
+      <c r="W3" s="14"/>
+      <c r="X3" s="13"/>
+      <c r="Y3" s="13"/>
+      <c r="Z3" s="13"/>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="14"/>
+    </row>
+    <row r="4" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="8" t="s">
-        <v>73</v>
+        <v>87</v>
       </c>
       <c r="B4" s="9">
         <v>44467</v>
@@ -2333,61 +2256,61 @@
       <c r="C4" s="9">
         <v>44468</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="E4" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="F4" s="10" t="s">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="10">
+        <v>2</v>
+      </c>
+      <c r="F4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="I4" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="G4" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="I4" s="10" t="s">
+      <c r="J4" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="J4" s="10" t="s">
+      <c r="K4" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="K4" s="60" t="s">
-        <v>77</v>
-      </c>
       <c r="L4" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M4" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="O4" s="55" t="s">
+        <v>85</v>
+      </c>
+      <c r="P4" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="O4" s="60" t="s">
-        <v>95</v>
-      </c>
-      <c r="P4" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
-      <c r="V4" s="13"/>
-      <c r="W4" s="13"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
-      <c r="AB4" s="13"/>
-    </row>
-    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q4" s="13"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="14"/>
+      <c r="X4" s="13"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
+      <c r="AA4" s="13"/>
+      <c r="AB4" s="14"/>
+    </row>
+    <row r="5" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>82</v>
+        <v>89</v>
       </c>
       <c r="B5" s="9">
         <v>44467</v>
@@ -2395,61 +2318,61 @@
       <c r="C5" s="9">
         <v>44468</v>
       </c>
-      <c r="D5" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="E5" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="D5" s="10">
+        <v>1</v>
+      </c>
+      <c r="E5" s="10">
+        <v>2</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H5" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G5" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="14" t="s">
+      <c r="J5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="K5" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="K5" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L5" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="15" t="s">
+      <c r="L5" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="N5" s="15" t="s">
+      <c r="O5" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P5" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O5" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="P5" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="13"/>
-      <c r="S5" s="13"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
-      <c r="V5" s="13"/>
-      <c r="W5" s="13"/>
-      <c r="X5" s="13"/>
-      <c r="Y5" s="13"/>
-      <c r="Z5" s="13"/>
-      <c r="AA5" s="13"/>
-      <c r="AB5" s="13"/>
-    </row>
-    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="Q5" s="14"/>
+      <c r="R5" s="14"/>
+      <c r="S5" s="14"/>
+      <c r="T5" s="14"/>
+      <c r="U5" s="14"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="14"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+      <c r="AA5" s="14"/>
+      <c r="AB5" s="14"/>
+    </row>
+    <row r="6" spans="1:28" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="B6" s="9">
         <v>44467</v>
@@ -2457,57 +2380,57 @@
       <c r="C6" s="9">
         <v>44467</v>
       </c>
-      <c r="D6" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="E6" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="D6" s="10">
+        <v>1</v>
+      </c>
+      <c r="E6" s="10">
+        <v>2</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>51</v>
-      </c>
-      <c r="I6" s="14" t="s">
+      <c r="J6" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="K6" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="K6" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="L6" s="15" t="s">
-        <v>51</v>
-      </c>
-      <c r="M6" s="15" t="s">
+      <c r="L6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="M6" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="N6" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="N6" s="15" t="s">
+      <c r="O6" s="56" t="s">
+        <v>85</v>
+      </c>
+      <c r="P6" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="P6" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="13"/>
-      <c r="S6" s="13"/>
-      <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="13"/>
-      <c r="W6" s="13"/>
-      <c r="X6" s="13"/>
-      <c r="Y6" s="13"/>
-      <c r="Z6" s="13"/>
-      <c r="AA6" s="13"/>
-      <c r="AB6" s="13"/>
+      <c r="Q6" s="14"/>
+      <c r="R6" s="14"/>
+      <c r="S6" s="14"/>
+      <c r="T6" s="14"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="14"/>
+      <c r="W6" s="14"/>
+      <c r="X6" s="14"/>
+      <c r="Y6" s="14"/>
+      <c r="Z6" s="14"/>
+      <c r="AA6" s="14"/>
+      <c r="AB6" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="15">
